--- a/restaurantes.xlsx
+++ b/restaurantes.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1320A93-405E-4C92-AE5C-941D00AB813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,11 +95,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +181,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +233,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,381 +426,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
         <v>84</v>
       </c>
     </row>

--- a/restaurantes.xlsx
+++ b/restaurantes.xlsx
@@ -1,38 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1320A93-405E-4C92-AE5C-941D00AB813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ciudades_id</t>
   </si>
   <si>
     <t>buffet</t>
   </si>
+  <si>
+    <t>americana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,19 +92,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,27 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,24 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,285 +379,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>381</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>245</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>84</v>
+      </c>
+      <c r="C34">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/restaurantes.xlsx
+++ b/restaurantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ciudades_id</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>americana</t>
+  </si>
+  <si>
+    <t>asiatica</t>
+  </si>
+  <si>
+    <t>italiana</t>
   </si>
 </sst>
 </file>
@@ -380,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,8 +419,14 @@
       <c r="C2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -418,8 +436,14 @@
       <c r="C3">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>472</v>
+      </c>
+      <c r="E3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -429,8 +453,14 @@
       <c r="C4">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -440,8 +470,14 @@
       <c r="C5">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -451,8 +487,14 @@
       <c r="C6">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>239</v>
+      </c>
+      <c r="E6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -462,8 +504,14 @@
       <c r="C7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -473,8 +521,14 @@
       <c r="C8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -484,8 +538,14 @@
       <c r="C9">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>2275</v>
+      </c>
+      <c r="E9">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -495,8 +555,14 @@
       <c r="C10">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -506,8 +572,14 @@
       <c r="C11">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>257</v>
+      </c>
+      <c r="E11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -517,8 +589,14 @@
       <c r="C12">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>551</v>
+      </c>
+      <c r="E12">
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -528,8 +606,14 @@
       <c r="C13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -539,8 +623,14 @@
       <c r="C14">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -550,8 +640,14 @@
       <c r="C15">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -561,8 +657,14 @@
       <c r="C16">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>480</v>
+      </c>
+      <c r="E16">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -572,8 +674,14 @@
       <c r="C17">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>341</v>
+      </c>
+      <c r="E17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -583,8 +691,14 @@
       <c r="C18">
         <v>242</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>430</v>
+      </c>
+      <c r="E18">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -594,8 +708,14 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>311</v>
+      </c>
+      <c r="E19">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -605,8 +725,14 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>871</v>
+      </c>
+      <c r="E20">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -616,8 +742,14 @@
       <c r="C21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>356</v>
+      </c>
+      <c r="E21">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -627,8 +759,14 @@
       <c r="C22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -638,8 +776,14 @@
       <c r="C23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -649,8 +793,14 @@
       <c r="C24">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -660,8 +810,14 @@
       <c r="C25">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>233</v>
+      </c>
+      <c r="E25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -671,8 +827,14 @@
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -682,8 +844,14 @@
       <c r="C27">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -693,8 +861,14 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -704,8 +878,14 @@
       <c r="C29">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>263</v>
+      </c>
+      <c r="E29">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -715,8 +895,14 @@
       <c r="C30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>95</v>
+      </c>
+      <c r="E30">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -726,8 +912,14 @@
       <c r="C31">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>188</v>
+      </c>
+      <c r="E31">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -737,8 +929,14 @@
       <c r="C32">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>313</v>
+      </c>
+      <c r="E32">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -748,8 +946,14 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -758,6 +962,12 @@
       </c>
       <c r="C34">
         <v>82</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
